--- a/test_case_report/sprint_36.xlsx
+++ b/test_case_report/sprint_36.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\test_case_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33EEE414-C83A-43BC-8E9E-9ED8233A6A6D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D9E85E-CE30-4463-8FA4-D8ECFFFAD205}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -519,7 +519,7 @@
   <dimension ref="B2:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,7 +577,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -585,7 +585,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="3">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/test_case_report/sprint_36.xlsx
+++ b/test_case_report/sprint_36.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\test_case_report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SymlexVPNTestCases\test_case_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D9E85E-CE30-4463-8FA4-D8ECFFFAD205}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3932C9B8-554A-4625-9156-8ABF69086A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Test Summary" sheetId="1" r:id="rId1"/>
+    <sheet name="test_summary" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>Total  testcase Written</t>
   </si>
@@ -36,10 +36,16 @@
     <t>Total Review</t>
   </si>
   <si>
-    <t>Spint( 36) - Day 1 - Test Case Summary</t>
+    <t>Spint( 36) - Day 5 - Test Case Summary</t>
   </si>
   <si>
-    <t>Spint( 36) - Day 2 - Test Case Summary</t>
+    <t>Spint( 36) - Day 6 - Test Case Summary</t>
+  </si>
+  <si>
+    <t>86(39)</t>
+  </si>
+  <si>
+    <t>96(39)</t>
   </si>
 </sst>
 </file>
@@ -516,82 +522,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C11"/>
+  <dimension ref="B3:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+    <row r="3" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7"/>
-    </row>
-    <row r="3" spans="2:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="7"/>
+    </row>
+    <row r="4" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C4" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+    <row r="6" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="7"/>
-    </row>
-    <row r="9" spans="2:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="3">
-        <v>25</v>
+      <c r="C12" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/test_case_report/sprint_36.xlsx
+++ b/test_case_report/sprint_36.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SymlexVPNTestCases\test_case_report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\test_case_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3932C9B8-554A-4625-9156-8ABF69086A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D9E85E-CE30-4463-8FA4-D8ECFFFAD205}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="test_summary" sheetId="1" r:id="rId1"/>
+    <sheet name="Test Summary" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>Total  testcase Written</t>
   </si>
@@ -36,16 +36,10 @@
     <t>Total Review</t>
   </si>
   <si>
-    <t>Spint( 36) - Day 5 - Test Case Summary</t>
+    <t>Spint( 36) - Day 1 - Test Case Summary</t>
   </si>
   <si>
-    <t>Spint( 36) - Day 6 - Test Case Summary</t>
-  </si>
-  <si>
-    <t>86(39)</t>
-  </si>
-  <si>
-    <t>96(39)</t>
+    <t>Spint( 36) - Day 2 - Test Case Summary</t>
   </si>
 </sst>
 </file>
@@ -522,82 +516,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:C12"/>
+  <dimension ref="B2:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="B3" s="6" t="s">
+    <row r="2" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="7"/>
-    </row>
-    <row r="4" spans="2:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
+      <c r="C2" s="7"/>
+    </row>
+    <row r="3" spans="2:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="1">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="B5" s="5" t="s">
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C4" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" spans="2:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="3">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="B9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="7"/>
-    </row>
-    <row r="10" spans="2:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="B10" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="B11" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="B12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>6</v>
+      <c r="C11" s="3">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B8:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
